--- a/Financials/Quarterly/SNY_QTR_FIN.xlsx
+++ b/Financials/Quarterly/SNY_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68161AA1-C4A6-418E-AC0C-DE85B442A31A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SNY" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
   <si>
     <t>SNY</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,155 +689,181 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43008</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>19493500</v>
+        <v>21396300</v>
       </c>
       <c r="E8" s="3">
-        <v>9538400</v>
+        <v>10932700</v>
       </c>
       <c r="F8" s="3">
-        <v>21572300</v>
+        <v>18632900</v>
       </c>
       <c r="G8" s="3">
-        <v>11025600</v>
+        <v>9117300</v>
       </c>
       <c r="H8" s="3">
-        <v>20944300</v>
+        <v>20619900</v>
       </c>
       <c r="I8" s="3">
+        <v>10542200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>20019700</v>
+      </c>
+      <c r="K8" s="3">
         <v>10449300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>21682600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>10910600</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6180100</v>
+        <v>6922700</v>
       </c>
       <c r="E9" s="3">
-        <v>2987300</v>
+        <v>3401900</v>
       </c>
       <c r="F9" s="3">
-        <v>6974800</v>
+        <v>5907300</v>
       </c>
       <c r="G9" s="3">
-        <v>3348900</v>
+        <v>2855500</v>
       </c>
       <c r="H9" s="3">
-        <v>6656700</v>
+        <v>6666900</v>
       </c>
       <c r="I9" s="3">
+        <v>3201000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>6362800</v>
+      </c>
+      <c r="K9" s="3">
         <v>3269100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>6728300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>3258500</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>13313400</v>
+        <v>14473700</v>
       </c>
       <c r="E10" s="3">
-        <v>6551000</v>
+        <v>7530800</v>
       </c>
       <c r="F10" s="3">
-        <v>14597500</v>
+        <v>12725600</v>
       </c>
       <c r="G10" s="3">
-        <v>7676700</v>
+        <v>6261800</v>
       </c>
       <c r="H10" s="3">
-        <v>14287600</v>
+        <v>13953100</v>
       </c>
       <c r="I10" s="3">
+        <v>7341200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>13656900</v>
+      </c>
+      <c r="K10" s="3">
         <v>7180200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>14954300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>7652100</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -814,37 +875,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>3233800</v>
+        <v>3521900</v>
       </c>
       <c r="E12" s="3">
-        <v>1502500</v>
+        <v>1639200</v>
       </c>
       <c r="F12" s="3">
-        <v>3292500</v>
+        <v>3091100</v>
       </c>
       <c r="G12" s="3">
-        <v>1574100</v>
+        <v>1436100</v>
       </c>
       <c r="H12" s="3">
-        <v>3130600</v>
+        <v>3147200</v>
       </c>
       <c r="I12" s="3">
+        <v>1504600</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2992300</v>
+      </c>
+      <c r="K12" s="3">
         <v>1536500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>3120000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>1433200</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -872,66 +941,84 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>831100</v>
+        <v>1671800</v>
       </c>
       <c r="E14" s="3">
-        <v>227700</v>
+        <v>335500</v>
       </c>
       <c r="F14" s="3">
-        <v>761800</v>
+        <v>794400</v>
       </c>
       <c r="G14" s="3">
-        <v>314600</v>
+        <v>217700</v>
       </c>
       <c r="H14" s="3">
-        <v>448400</v>
+        <v>728200</v>
       </c>
       <c r="I14" s="3">
+        <v>300700</v>
+      </c>
+      <c r="J14" s="3">
+        <v>428600</v>
+      </c>
+      <c r="K14" s="3">
         <v>139700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>1017700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>98600</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>1172600</v>
+        <v>1313900</v>
       </c>
       <c r="E15" s="3">
-        <v>537600</v>
+        <v>602500</v>
       </c>
       <c r="F15" s="3">
-        <v>1028300</v>
+        <v>1120900</v>
       </c>
       <c r="G15" s="3">
-        <v>509400</v>
+        <v>513900</v>
       </c>
       <c r="H15" s="3">
-        <v>1162100</v>
+        <v>982900</v>
       </c>
       <c r="I15" s="3">
+        <v>486900</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1110800</v>
+      </c>
+      <c r="K15" s="3">
         <v>590400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>956700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>473000</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -940,66 +1027,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>16955700</v>
+        <v>18575700</v>
       </c>
       <c r="E17" s="3">
-        <v>8128600</v>
+        <v>7887600</v>
       </c>
       <c r="F17" s="3">
-        <v>18376000</v>
+        <v>16207100</v>
       </c>
       <c r="G17" s="3">
-        <v>8703800</v>
+        <v>7769800</v>
       </c>
       <c r="H17" s="3">
-        <v>17336000</v>
+        <v>17564800</v>
       </c>
       <c r="I17" s="3">
+        <v>8325200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>16570700</v>
+      </c>
+      <c r="K17" s="3">
         <v>8451400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>17610700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>8104000</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>2537800</v>
+        <v>2820700</v>
       </c>
       <c r="E18" s="3">
-        <v>1409700</v>
+        <v>3045100</v>
       </c>
       <c r="F18" s="3">
-        <v>3196300</v>
+        <v>2425700</v>
       </c>
       <c r="G18" s="3">
-        <v>2321800</v>
+        <v>1347500</v>
       </c>
       <c r="H18" s="3">
-        <v>3608300</v>
+        <v>3055200</v>
       </c>
       <c r="I18" s="3">
+        <v>2217100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>3449000</v>
+      </c>
+      <c r="K18" s="3">
         <v>1997800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>4071900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>2806600</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1011,153 +1112,185 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>125600</v>
+        <v>104300</v>
       </c>
       <c r="E20" s="3">
-        <v>2300</v>
+        <v>-118900</v>
       </c>
       <c r="F20" s="3">
-        <v>35200</v>
+        <v>120100</v>
       </c>
       <c r="G20" s="3">
-        <v>-90400</v>
+        <v>2200</v>
       </c>
       <c r="H20" s="3">
-        <v>58700</v>
+        <v>33700</v>
       </c>
       <c r="I20" s="3">
+        <v>-86400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>56100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-74000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-23500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-286400</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>4751600</v>
+        <v>5730000</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F21" s="3">
-        <v>5489900</v>
+        <v>4541800</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H21" s="3">
-        <v>5735200</v>
+        <v>5247500</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J21" s="3">
+        <v>5482000</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="3">
         <v>6078000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>248800</v>
+        <v>290600</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F22" s="3">
-        <v>210100</v>
+        <v>237900</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H22" s="3">
-        <v>196000</v>
+        <v>200800</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J22" s="3">
+        <v>187400</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="3">
         <v>199500</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2414500</v>
+        <v>2634400</v>
       </c>
       <c r="E23" s="3">
-        <v>1412100</v>
+        <v>2926100</v>
       </c>
       <c r="F23" s="3">
-        <v>3021400</v>
+        <v>2307900</v>
       </c>
       <c r="G23" s="3">
-        <v>2231400</v>
+        <v>1349800</v>
       </c>
       <c r="H23" s="3">
-        <v>3471000</v>
+        <v>2888000</v>
       </c>
       <c r="I23" s="3">
+        <v>2130700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>3317700</v>
+      </c>
+      <c r="K23" s="3">
         <v>1923900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>3848900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>2520200</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>348600</v>
+        <v>206400</v>
       </c>
       <c r="E24" s="3">
-        <v>219500</v>
+        <v>479100</v>
       </c>
       <c r="F24" s="3">
-        <v>1302900</v>
+        <v>333200</v>
       </c>
       <c r="G24" s="3">
-        <v>483600</v>
+        <v>209800</v>
       </c>
       <c r="H24" s="3">
-        <v>718400</v>
+        <v>1245400</v>
       </c>
       <c r="I24" s="3">
+        <v>461100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>686700</v>
+      </c>
+      <c r="K24" s="3">
         <v>394400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>973100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>540000</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1185,66 +1318,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2065900</v>
+        <v>2428000</v>
       </c>
       <c r="E26" s="3">
-        <v>1192600</v>
+        <v>2447100</v>
       </c>
       <c r="F26" s="3">
-        <v>1718500</v>
+        <v>1974700</v>
       </c>
       <c r="G26" s="3">
-        <v>1747800</v>
+        <v>1139900</v>
       </c>
       <c r="H26" s="3">
-        <v>2752600</v>
+        <v>1642600</v>
       </c>
       <c r="I26" s="3">
+        <v>1669500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>2631100</v>
+      </c>
+      <c r="K26" s="3">
         <v>1529500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>2875800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1980200</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2087000</v>
+        <v>2851000</v>
       </c>
       <c r="E27" s="3">
-        <v>1193800</v>
+        <v>2555900</v>
       </c>
       <c r="F27" s="3">
-        <v>1719600</v>
+        <v>1994900</v>
       </c>
       <c r="G27" s="3">
-        <v>1765400</v>
+        <v>1141100</v>
       </c>
       <c r="H27" s="3">
-        <v>2709200</v>
+        <v>1643700</v>
       </c>
       <c r="I27" s="3">
+        <v>1680700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>2589600</v>
+      </c>
+      <c r="K27" s="3">
         <v>1489600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>2859400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1953200</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1272,37 +1423,49 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-14600</v>
       </c>
       <c r="E29" s="3">
-        <v>-1200</v>
+        <v>-4500</v>
       </c>
       <c r="F29" s="3">
-        <v>-1139800</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>74000</v>
+        <v>-1100</v>
       </c>
       <c r="H29" s="3">
-        <v>5189400</v>
+        <v>-1089500</v>
       </c>
       <c r="I29" s="3">
+        <v>70700</v>
+      </c>
+      <c r="J29" s="3">
+        <v>4960300</v>
+      </c>
+      <c r="K29" s="3">
         <v>5196500</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>32900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1330,8 +1493,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1359,66 +1528,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-125600</v>
+        <v>-104300</v>
       </c>
       <c r="E32" s="3">
-        <v>-2300</v>
+        <v>118900</v>
       </c>
       <c r="F32" s="3">
-        <v>-35200</v>
+        <v>-120100</v>
       </c>
       <c r="G32" s="3">
-        <v>90400</v>
+        <v>-2200</v>
       </c>
       <c r="H32" s="3">
-        <v>-58700</v>
+        <v>-33700</v>
       </c>
       <c r="I32" s="3">
+        <v>86400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-56100</v>
+      </c>
+      <c r="K32" s="3">
         <v>74000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>23500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>286400</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2087000</v>
+        <v>2836400</v>
       </c>
       <c r="E33" s="3">
-        <v>1192600</v>
+        <v>2551400</v>
       </c>
       <c r="F33" s="3">
-        <v>579900</v>
+        <v>1994900</v>
       </c>
       <c r="G33" s="3">
-        <v>1839400</v>
+        <v>1139900</v>
       </c>
       <c r="H33" s="3">
-        <v>7898600</v>
+        <v>554300</v>
       </c>
       <c r="I33" s="3">
+        <v>1751400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>7549900</v>
+      </c>
+      <c r="K33" s="3">
         <v>6686000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>2892300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1965000</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1446,71 +1633,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2087000</v>
+        <v>2836400</v>
       </c>
       <c r="E35" s="3">
-        <v>1192600</v>
+        <v>2551400</v>
       </c>
       <c r="F35" s="3">
-        <v>579900</v>
+        <v>1994900</v>
       </c>
       <c r="G35" s="3">
-        <v>1839400</v>
+        <v>1139900</v>
       </c>
       <c r="H35" s="3">
-        <v>7898600</v>
+        <v>554300</v>
       </c>
       <c r="I35" s="3">
+        <v>1751400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>7549900</v>
+      </c>
+      <c r="K35" s="3">
         <v>6686000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>2892300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1965000</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43008</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1522,8 +1727,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1535,37 +1742,45 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8795400</v>
+        <v>7769800</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F41" s="3">
-        <v>12107900</v>
+        <v>8407100</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H41" s="3">
-        <v>12767500</v>
+        <v>11573300</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J41" s="3">
+        <v>12203900</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L41" s="3">
         <v>12058600</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1593,211 +1808,259 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7749500</v>
+        <v>8145600</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F43" s="3">
-        <v>8470200</v>
+        <v>7407400</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H43" s="3">
-        <v>8048800</v>
+        <v>8096300</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J43" s="3">
+        <v>7693500</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L43" s="3">
         <v>8581700</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8643900</v>
+        <v>8389100</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F44" s="3">
-        <v>8003000</v>
+        <v>8262300</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H44" s="3">
-        <v>8505400</v>
+        <v>7649700</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J44" s="3">
+        <v>8129900</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L44" s="3">
         <v>8089900</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2907500</v>
+        <v>3272800</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F45" s="3">
-        <v>2353500</v>
+        <v>2779200</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H45" s="3">
-        <v>2454400</v>
+        <v>2249600</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J45" s="3">
+        <v>2346100</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L45" s="3">
         <v>2595300</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>28096300</v>
+        <v>27577400</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F46" s="3">
-        <v>30934600</v>
+        <v>26856000</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H46" s="3">
-        <v>31776200</v>
+        <v>29568900</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J46" s="3">
+        <v>30373400</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L46" s="3">
         <v>31325500</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7087500</v>
+        <v>7064000</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F47" s="3">
-        <v>10184000</v>
+        <v>6774600</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H47" s="3">
-        <v>6736500</v>
+        <v>9734400</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J47" s="3">
+        <v>6439100</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L47" s="3">
         <v>6667200</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11116000</v>
+        <v>10828300</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F48" s="3">
-        <v>11243900</v>
+        <v>10625200</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H48" s="3">
-        <v>11307300</v>
+        <v>10747500</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J48" s="3">
+        <v>10808100</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L48" s="3">
         <v>11760400</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>78955200</v>
+        <v>74190500</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F49" s="3">
-        <v>62615700</v>
+        <v>75469500</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H49" s="3">
-        <v>64340000</v>
+        <v>59851400</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J49" s="3">
+        <v>61499600</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L49" s="3">
         <v>60059200</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1825,8 +2088,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1854,37 +2123,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7125000</v>
+        <v>5338400</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F52" s="3">
-        <v>5138900</v>
+        <v>6810500</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H52" s="3">
-        <v>5416000</v>
+        <v>4912100</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J52" s="3">
+        <v>5176900</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L52" s="3">
         <v>13052800</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1912,37 +2193,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>132379900</v>
+        <v>124998700</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F54" s="3">
-        <v>117161500</v>
+        <v>126535800</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H54" s="3">
-        <v>119576000</v>
+        <v>111989200</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J54" s="3">
+        <v>114297100</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L54" s="3">
         <v>122865000</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1954,8 +2247,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1967,182 +2262,220 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5378400</v>
+        <v>5656000</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F57" s="3">
-        <v>5438300</v>
+        <v>5141000</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H57" s="3">
-        <v>5050900</v>
+        <v>5198200</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J57" s="3">
+        <v>4827900</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L57" s="3">
         <v>5043900</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2874700</v>
+        <v>2931800</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F58" s="3">
-        <v>1253600</v>
+        <v>6904700</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H58" s="3">
-        <v>2834800</v>
+        <v>1430500</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J58" s="3">
+        <v>3638600</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L58" s="3">
         <v>1226600</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>14761800</v>
+        <v>10908000</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F59" s="3">
-        <v>22264800</v>
+        <v>9953200</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H59" s="3">
-        <v>12133700</v>
+        <v>21049700</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J59" s="3">
+        <v>10669000</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L59" s="3">
         <v>13019900</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>23014900</v>
+        <v>19495700</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F60" s="3">
-        <v>18150600</v>
+        <v>21998900</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H60" s="3">
-        <v>20019300</v>
+        <v>17349300</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J60" s="3">
+        <v>19135500</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L60" s="3">
         <v>19290400</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>26699500</v>
+        <v>24763400</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>16685700</v>
+        <v>25618400</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>17850100</v>
+        <v>16054600</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>17001500</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>19748200</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>16508500</v>
+        <v>14502800</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F62" s="3">
-        <v>13963600</v>
+        <v>15682100</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H62" s="3">
-        <v>13869700</v>
+        <v>13241700</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J62" s="3">
+        <v>13318000</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L62" s="3">
         <v>16069500</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2170,8 +2503,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2199,8 +2538,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2228,37 +2573,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>66415300</v>
+        <v>58940400</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F66" s="3">
-        <v>48998400</v>
+        <v>63483300</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H66" s="3">
-        <v>51928200</v>
+        <v>46835200</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J66" s="3">
+        <v>49635700</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L66" s="3">
         <v>55307600</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2270,8 +2627,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2299,8 +2658,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2328,8 +2693,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2357,8 +2728,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2386,8 +2763,14 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2415,8 +2798,14 @@
       <c r="K72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>0</v>
+      </c>
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2444,8 +2833,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2473,8 +2868,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2502,37 +2903,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>65964600</v>
+        <v>66058300</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F76" s="3">
-        <v>68163100</v>
+        <v>63052500</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H76" s="3">
-        <v>67647800</v>
+        <v>65154000</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J76" s="3">
+        <v>64661400</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L76" s="3">
         <v>67557500</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2560,71 +2973,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43008</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2087000</v>
+        <v>2836400</v>
       </c>
       <c r="E81" s="3">
-        <v>1192600</v>
+        <v>2551400</v>
       </c>
       <c r="F81" s="3">
-        <v>579900</v>
+        <v>1994900</v>
       </c>
       <c r="G81" s="3">
-        <v>1839400</v>
+        <v>1139900</v>
       </c>
       <c r="H81" s="3">
-        <v>7898600</v>
+        <v>554300</v>
       </c>
       <c r="I81" s="3">
+        <v>1751400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>7549900</v>
+      </c>
+      <c r="K81" s="3">
         <v>6686000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>2892300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1965000</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2636,37 +3067,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2088200</v>
+        <v>2805000</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F83" s="3">
-        <v>2258400</v>
+        <v>1996000</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H83" s="3">
-        <v>2068300</v>
+        <v>2158700</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J83" s="3">
+        <v>1976900</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L83" s="3">
         <v>2029500</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2694,8 +3133,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2723,8 +3168,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2752,8 +3203,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2781,8 +3238,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2810,37 +3273,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2083500</v>
+        <v>4232100</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F89" s="3">
-        <v>9810700</v>
+        <v>1991500</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H89" s="3">
-        <v>3000300</v>
+        <v>9377600</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J89" s="3">
+        <v>2867800</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L89" s="3">
         <v>6161300</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2852,37 +3327,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-966000</v>
+        <v>-1294800</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F91" s="3">
-        <v>-2249000</v>
+        <v>-923400</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H91" s="3">
-        <v>-2342900</v>
+        <v>-1074900</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J91" s="3">
+        <v>-1119700</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L91" s="3">
         <v>-1036500</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2910,8 +3393,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2939,37 +3428,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-15354600</v>
+        <v>234500</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F94" s="3">
-        <v>-3108200</v>
+        <v>-14676800</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H94" s="3">
-        <v>3858300</v>
+        <v>-2971000</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J94" s="3">
+        <v>3688000</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L94" s="3">
         <v>-1369800</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2981,37 +3482,45 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-4428800</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-4233300</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-4354800</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-4162600</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3039,8 +3548,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3068,8 +3583,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3097,91 +3618,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>9969200</v>
+        <v>-5115200</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F100" s="3">
-        <v>-3181000</v>
+        <v>9529100</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H100" s="3">
-        <v>-6094400</v>
+        <v>-3040600</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J100" s="3">
+        <v>-5825400</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L100" s="3">
         <v>132600</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-10600</v>
+        <v>11200</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F101" s="3">
-        <v>-31700</v>
+        <v>-10100</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H101" s="3">
-        <v>-55200</v>
+        <v>-30300</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J101" s="3">
+        <v>-52700</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L101" s="3">
         <v>2300</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3312500</v>
+        <v>-637300</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F102" s="3">
-        <v>-659700</v>
+        <v>-3166300</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H102" s="3">
-        <v>709000</v>
+        <v>-630600</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J102" s="3">
+        <v>677700</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L102" s="3">
         <v>4926500</v>
       </c>
-      <c r="K102" s="3" t="s">
+      <c r="M102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Financials/Quarterly/SNY_QTR_FIN.xlsx
+++ b/Financials/Quarterly/SNY_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68161AA1-C4A6-418E-AC0C-DE85B442A31A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="SNY" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
   <si>
     <t>SNY</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,181 +654,220 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>21396300</v>
+        <v>10893300</v>
       </c>
       <c r="E8" s="3">
-        <v>10932700</v>
+        <v>19426900</v>
       </c>
       <c r="F8" s="3">
-        <v>18632900</v>
+        <v>9566900</v>
       </c>
       <c r="G8" s="3">
-        <v>9117300</v>
+        <v>20938900</v>
       </c>
       <c r="H8" s="3">
+        <v>10698900</v>
+      </c>
+      <c r="I8" s="3">
+        <v>18234500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>8922300</v>
+      </c>
+      <c r="K8" s="3">
         <v>20619900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>10542200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>20019700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>10449300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>21682600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>10910600</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6922700</v>
+        <v>3441100</v>
       </c>
       <c r="E9" s="3">
-        <v>3401900</v>
+        <v>5912700</v>
       </c>
       <c r="F9" s="3">
-        <v>5907300</v>
+        <v>2874600</v>
       </c>
       <c r="G9" s="3">
-        <v>2855500</v>
+        <v>6774700</v>
       </c>
       <c r="H9" s="3">
+        <v>3329100</v>
+      </c>
+      <c r="I9" s="3">
+        <v>5781000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2794400</v>
+      </c>
+      <c r="K9" s="3">
         <v>6666900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>3201000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>6362800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>3269100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="O9" s="3">
         <v>6728300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="P9" s="3">
         <v>3258500</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>14473700</v>
+        <v>7452100</v>
       </c>
       <c r="E10" s="3">
-        <v>7530800</v>
+        <v>13514200</v>
       </c>
       <c r="F10" s="3">
-        <v>12725600</v>
+        <v>6692300</v>
       </c>
       <c r="G10" s="3">
-        <v>6261800</v>
+        <v>14164200</v>
       </c>
       <c r="H10" s="3">
+        <v>7369800</v>
+      </c>
+      <c r="I10" s="3">
+        <v>12453500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>6127900</v>
+      </c>
+      <c r="K10" s="3">
         <v>13953100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>7341200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>13656900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>7180200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="O10" s="3">
         <v>14954300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="P10" s="3">
         <v>7652100</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -877,43 +881,55 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>3521900</v>
+        <v>1493300</v>
       </c>
       <c r="E12" s="3">
-        <v>1639200</v>
+        <v>3263300</v>
       </c>
       <c r="F12" s="3">
-        <v>3091100</v>
+        <v>1520700</v>
       </c>
       <c r="G12" s="3">
-        <v>1436100</v>
+        <v>3446600</v>
       </c>
       <c r="H12" s="3">
+        <v>1604200</v>
+      </c>
+      <c r="I12" s="3">
+        <v>3025000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1405400</v>
+      </c>
+      <c r="K12" s="3">
         <v>3147200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="L12" s="3">
         <v>1504600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="M12" s="3">
         <v>2992300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="N12" s="3">
         <v>1536500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="O12" s="3">
         <v>3120000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="P12" s="3">
         <v>1433200</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -947,78 +963,105 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>1671800</v>
+        <v>373300</v>
       </c>
       <c r="E14" s="3">
-        <v>335500</v>
+        <v>2840500</v>
       </c>
       <c r="F14" s="3">
-        <v>794400</v>
+        <v>357900</v>
       </c>
       <c r="G14" s="3">
-        <v>217700</v>
+        <v>1636000</v>
       </c>
       <c r="H14" s="3">
+        <v>328300</v>
+      </c>
+      <c r="I14" s="3">
+        <v>777400</v>
+      </c>
+      <c r="J14" s="3">
+        <v>213000</v>
+      </c>
+      <c r="K14" s="3">
         <v>728200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="L14" s="3">
         <v>300700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="M14" s="3">
         <v>428600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="N14" s="3">
         <v>139700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="O14" s="3">
         <v>1017700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="P14" s="3">
         <v>98600</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>1313900</v>
+        <v>571000</v>
       </c>
       <c r="E15" s="3">
-        <v>602500</v>
+        <v>1225400</v>
       </c>
       <c r="F15" s="3">
-        <v>1120900</v>
+        <v>611600</v>
       </c>
       <c r="G15" s="3">
-        <v>513900</v>
+        <v>1285800</v>
       </c>
       <c r="H15" s="3">
+        <v>589600</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1096900</v>
+      </c>
+      <c r="J15" s="3">
+        <v>502900</v>
+      </c>
+      <c r="K15" s="3">
         <v>982900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="L15" s="3">
         <v>486900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="M15" s="3">
         <v>1110800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="N15" s="3">
         <v>590400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="O15" s="3">
         <v>956700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="P15" s="3">
         <v>473000</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1029,78 +1072,99 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>18575700</v>
+        <v>8552300</v>
       </c>
       <c r="E17" s="3">
-        <v>7887600</v>
+        <v>18205900</v>
       </c>
       <c r="F17" s="3">
-        <v>16207100</v>
+        <v>8019800</v>
       </c>
       <c r="G17" s="3">
-        <v>7769800</v>
+        <v>18178500</v>
       </c>
       <c r="H17" s="3">
+        <v>7718900</v>
+      </c>
+      <c r="I17" s="3">
+        <v>15860600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>7603700</v>
+      </c>
+      <c r="K17" s="3">
         <v>17564800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>8325200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>16570700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>8451400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>17610700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>8104000</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>2820700</v>
+        <v>2340900</v>
       </c>
       <c r="E18" s="3">
-        <v>3045100</v>
+        <v>1221000</v>
       </c>
       <c r="F18" s="3">
-        <v>2425700</v>
+        <v>1547100</v>
       </c>
       <c r="G18" s="3">
-        <v>1347500</v>
+        <v>2760400</v>
       </c>
       <c r="H18" s="3">
+        <v>2980000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2373900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1318700</v>
+      </c>
+      <c r="K18" s="3">
         <v>3055200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>2217100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>3449000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>1997800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>4071900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>2806600</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1114,183 +1178,231 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>104300</v>
+        <v>-87800</v>
       </c>
       <c r="E20" s="3">
-        <v>-118900</v>
+        <v>136200</v>
       </c>
       <c r="F20" s="3">
-        <v>120100</v>
+        <v>-59300</v>
       </c>
       <c r="G20" s="3">
+        <v>102100</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-116400</v>
+      </c>
+      <c r="I20" s="3">
+        <v>117500</v>
+      </c>
+      <c r="J20" s="3">
         <v>2200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="K20" s="3">
         <v>33700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>-86400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>56100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>-74000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>-23500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>-286400</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3">
-        <v>5730000</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="3">
-        <v>4541800</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="3">
+        <v>5506500</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="3">
+        <v>5607500</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="3">
+        <v>4444700</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="3">
         <v>5247500</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="3">
         <v>5482000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="3">
         <v>6078000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="P21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>290600</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="3">
-        <v>237900</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="3">
+        <v>300900</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="3">
+        <v>284400</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="3">
+        <v>232800</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="3">
         <v>200800</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M22" s="3">
         <v>187400</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O22" s="3">
         <v>199500</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="P22" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2634400</v>
+        <v>2253100</v>
       </c>
       <c r="E23" s="3">
-        <v>2926100</v>
+        <v>1056300</v>
       </c>
       <c r="F23" s="3">
-        <v>2307900</v>
+        <v>1487800</v>
       </c>
       <c r="G23" s="3">
-        <v>1349800</v>
+        <v>2578100</v>
       </c>
       <c r="H23" s="3">
+        <v>2863600</v>
+      </c>
+      <c r="I23" s="3">
+        <v>2258600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1320900</v>
+      </c>
+      <c r="K23" s="3">
         <v>2888000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>2130700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>3317700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>1923900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>3848900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>2520200</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>206400</v>
+        <v>294300</v>
       </c>
       <c r="E24" s="3">
-        <v>479100</v>
+        <v>14300</v>
       </c>
       <c r="F24" s="3">
-        <v>333200</v>
+        <v>280000</v>
       </c>
       <c r="G24" s="3">
-        <v>209800</v>
+        <v>202000</v>
       </c>
       <c r="H24" s="3">
+        <v>468800</v>
+      </c>
+      <c r="I24" s="3">
+        <v>326100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>205300</v>
+      </c>
+      <c r="K24" s="3">
         <v>1245400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>461100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
         <v>686700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
         <v>394400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="O24" s="3">
         <v>973100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="P24" s="3">
         <v>540000</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1324,78 +1436,105 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2428000</v>
+        <v>1958800</v>
       </c>
       <c r="E26" s="3">
-        <v>2447100</v>
+        <v>1042000</v>
       </c>
       <c r="F26" s="3">
-        <v>1974700</v>
+        <v>1207800</v>
       </c>
       <c r="G26" s="3">
-        <v>1139900</v>
+        <v>2376100</v>
       </c>
       <c r="H26" s="3">
+        <v>2394700</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1932500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1115600</v>
+      </c>
+      <c r="K26" s="3">
         <v>1642600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>1669500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>2631100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>1529500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>2875800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>1980200</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2851000</v>
+        <v>2048900</v>
       </c>
       <c r="E27" s="3">
-        <v>2555900</v>
+        <v>1152900</v>
       </c>
       <c r="F27" s="3">
-        <v>1994900</v>
+        <v>1248400</v>
       </c>
       <c r="G27" s="3">
-        <v>1141100</v>
+        <v>2790000</v>
       </c>
       <c r="H27" s="3">
+        <v>2501200</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1952200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1116700</v>
+      </c>
+      <c r="K27" s="3">
         <v>1643700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>1680700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>2589600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>1489600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>2859400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>1953200</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1429,43 +1568,61 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-14600</v>
+        <v>-109800</v>
       </c>
       <c r="E29" s="3">
-        <v>-4500</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-1100</v>
       </c>
-      <c r="H29" s="3">
+      <c r="K29" s="3">
         <v>-1089500</v>
       </c>
-      <c r="I29" s="3">
+      <c r="L29" s="3">
         <v>70700</v>
       </c>
-      <c r="J29" s="3">
+      <c r="M29" s="3">
         <v>4960300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="N29" s="3">
         <v>5196500</v>
       </c>
-      <c r="L29" s="3">
+      <c r="O29" s="3">
         <v>32900</v>
       </c>
-      <c r="M29" s="3">
+      <c r="P29" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1499,8 +1656,17 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1534,78 +1700,105 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-104300</v>
+        <v>87800</v>
       </c>
       <c r="E32" s="3">
-        <v>118900</v>
+        <v>-136200</v>
       </c>
       <c r="F32" s="3">
-        <v>-120100</v>
+        <v>59300</v>
       </c>
       <c r="G32" s="3">
+        <v>-102100</v>
+      </c>
+      <c r="H32" s="3">
+        <v>116400</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-117500</v>
+      </c>
+      <c r="J32" s="3">
         <v>-2200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="K32" s="3">
         <v>-33700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>86400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>-56100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>74000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>23500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>286400</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2836400</v>
+        <v>1939100</v>
       </c>
       <c r="E33" s="3">
-        <v>2551400</v>
+        <v>1152900</v>
       </c>
       <c r="F33" s="3">
-        <v>1994900</v>
+        <v>1248400</v>
       </c>
       <c r="G33" s="3">
-        <v>1139900</v>
+        <v>2775700</v>
       </c>
       <c r="H33" s="3">
+        <v>2496900</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1952200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1115600</v>
+      </c>
+      <c r="K33" s="3">
         <v>554300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>1751400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>7549900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>6686000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>2892300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>1965000</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1639,83 +1832,110 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2836400</v>
+        <v>1939100</v>
       </c>
       <c r="E35" s="3">
-        <v>2551400</v>
+        <v>1152900</v>
       </c>
       <c r="F35" s="3">
-        <v>1994900</v>
+        <v>1248400</v>
       </c>
       <c r="G35" s="3">
-        <v>1139900</v>
+        <v>2775700</v>
       </c>
       <c r="H35" s="3">
+        <v>2496900</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1952200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1115600</v>
+      </c>
+      <c r="K35" s="3">
         <v>554300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>1751400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>7549900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>6686000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>2892300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>1965000</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1729,8 +1949,11 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1744,43 +1967,55 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>7769800</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" s="3">
-        <v>8407100</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="D41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7402700</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="3">
+        <v>7603700</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="3">
+        <v>8227300</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" s="3">
         <v>11573300</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M41" s="3">
         <v>12203900</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O41" s="3">
         <v>12058600</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="P41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1814,253 +2049,325 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>8145600</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" s="3">
-        <v>7407400</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="3">
+        <v>7937400</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="3">
+        <v>7971500</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="3">
+        <v>7249000</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43" s="3">
         <v>8096300</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M43" s="3">
         <v>7693500</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O43" s="3">
         <v>8581700</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="P43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>8389100</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" s="3">
-        <v>8262300</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="3">
+        <v>9248500</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="3">
+        <v>8209700</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" s="3">
+        <v>8085700</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44" s="3">
         <v>7649700</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M44" s="3">
         <v>8129900</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O44" s="3">
         <v>8089900</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="P44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>3272800</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" s="3">
-        <v>2779200</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3206200</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="3">
+        <v>3202900</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" s="3">
+        <v>2719700</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45" s="3">
         <v>2249600</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M45" s="3">
         <v>2346100</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O45" s="3">
         <v>2595300</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="P45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>27577400</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" s="3">
-        <v>26856000</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="3">
+        <v>27794800</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" s="3">
+        <v>26987700</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="3">
+        <v>26281700</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" s="3">
         <v>29568900</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M46" s="3">
         <v>30373400</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O46" s="3">
         <v>31325500</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="P46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>7064000</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F47" s="3">
-        <v>6774600</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="3">
+        <v>6288200</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="3">
+        <v>6913000</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="3">
+        <v>6629700</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" s="3">
         <v>9734400</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M47" s="3">
         <v>6439100</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O47" s="3">
         <v>6667200</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="P47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>10828300</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" s="3">
-        <v>10625200</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="3">
+        <v>10547400</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" s="3">
+        <v>10596800</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" s="3">
+        <v>10398100</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K48" s="3">
         <v>10747500</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M48" s="3">
         <v>10808100</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O48" s="3">
         <v>11760400</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="P48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>74190500</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F49" s="3">
-        <v>75469500</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="3">
+        <v>70953900</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="3">
+        <v>72604200</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="3">
+        <v>73855900</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K49" s="3">
         <v>59851400</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M49" s="3">
         <v>61499600</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O49" s="3">
         <v>60059200</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="P49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2094,8 +2401,17 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2129,43 +2445,61 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>5338400</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" s="3">
-        <v>6810500</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="3">
+        <v>5794100</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" s="3">
+        <v>5224300</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" s="3">
+        <v>6664900</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" s="3">
         <v>4912100</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M52" s="3">
         <v>5176900</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O52" s="3">
         <v>13052800</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="P52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,43 +2533,61 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>124998700</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F54" s="3">
-        <v>126535800</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H54" s="3">
+      <c r="D54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="3">
+        <v>121378400</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="3">
+        <v>122326000</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54" s="3">
+        <v>123830200</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K54" s="3">
         <v>111989200</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M54" s="3">
         <v>114297100</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O54" s="3">
         <v>122865000</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="P54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2249,8 +2601,11 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2264,218 +2619,275 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>5656000</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F57" s="3">
-        <v>5141000</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="3">
+        <v>5580000</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" s="3">
+        <v>5535000</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" s="3">
+        <v>5031000</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K57" s="3">
         <v>5198200</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M57" s="3">
         <v>4827900</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O57" s="3">
         <v>5043900</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="P57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>2931800</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F58" s="3">
-        <v>6904700</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="3">
+        <v>5092500</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" s="3">
+        <v>2869100</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58" s="3">
+        <v>6757100</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K58" s="3">
         <v>1430500</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M58" s="3">
         <v>3638600</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O58" s="3">
         <v>1226600</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="P58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>10908000</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F59" s="3">
-        <v>9953200</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="3">
+        <v>10415600</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" s="3">
+        <v>10674800</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" s="3">
+        <v>9740400</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K59" s="3">
         <v>21049700</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M59" s="3">
         <v>10669000</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O59" s="3">
         <v>13019900</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="P59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>19495700</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F60" s="3">
-        <v>21998900</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="3">
+        <v>21088200</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G60" s="3">
+        <v>19078800</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60" s="3">
+        <v>21528500</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K60" s="3">
         <v>17349300</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M60" s="3">
         <v>19135500</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O60" s="3">
         <v>19290400</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="P60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>24763400</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>24255900</v>
       </c>
       <c r="F61" s="3">
-        <v>25618400</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>24234000</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <v>25070600</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>16054600</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>17001500</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>19748200</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>14502800</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F62" s="3">
-        <v>15682100</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="3">
+        <v>13977500</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G62" s="3">
+        <v>14192700</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62" s="3">
+        <v>15346700</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K62" s="3">
         <v>13241700</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M62" s="3">
         <v>13318000</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O62" s="3">
         <v>16069500</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="P62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2509,8 +2921,17 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2544,8 +2965,17 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2579,43 +3009,61 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>58940400</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F66" s="3">
-        <v>63483300</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" s="3">
+        <v>59502800</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G66" s="3">
+        <v>57680100</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I66" s="3">
+        <v>62125900</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K66" s="3">
         <v>46835200</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M66" s="3">
         <v>49635700</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O66" s="3">
         <v>55307600</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="P66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2629,8 +3077,11 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2664,8 +3115,17 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2699,8 +3159,17 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2734,8 +3203,17 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2769,8 +3247,17 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2804,8 +3291,17 @@
       <c r="M72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+      <c r="O72" s="3">
+        <v>0</v>
+      </c>
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2839,8 +3335,17 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2874,8 +3379,17 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2909,43 +3423,61 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
-        <v>66058300</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F76" s="3">
-        <v>63052500</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E76" s="3">
+        <v>61875600</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G76" s="3">
+        <v>64645800</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I76" s="3">
+        <v>61704300</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K76" s="3">
         <v>65154000</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M76" s="3">
         <v>64661400</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O76" s="3">
         <v>67557500</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="P76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2979,83 +3511,110 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2836400</v>
+        <v>1939100</v>
       </c>
       <c r="E81" s="3">
-        <v>2551400</v>
+        <v>1152900</v>
       </c>
       <c r="F81" s="3">
-        <v>1994900</v>
+        <v>1248400</v>
       </c>
       <c r="G81" s="3">
-        <v>1139900</v>
+        <v>2775700</v>
       </c>
       <c r="H81" s="3">
+        <v>2496900</v>
+      </c>
+      <c r="I81" s="3">
+        <v>1952200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1115600</v>
+      </c>
+      <c r="K81" s="3">
         <v>554300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>1751400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>7549900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>6686000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>2892300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>1965000</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3069,43 +3628,55 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>2805000</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F83" s="3">
-        <v>1996000</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E83" s="3">
+        <v>4149300</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" s="3">
+        <v>2745000</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" s="3">
+        <v>1953300</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K83" s="3">
         <v>2158700</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M83" s="3">
         <v>1976900</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O83" s="3">
         <v>2029500</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="P83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3139,8 +3710,17 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3174,8 +3754,17 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3209,8 +3798,17 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3244,8 +3842,17 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3279,43 +3886,61 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>4232100</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F89" s="3">
-        <v>1991500</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89" s="3">
+        <v>3490500</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" s="3">
+        <v>4141700</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" s="3">
+        <v>1949000</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K89" s="3">
         <v>9377600</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M89" s="3">
         <v>2867800</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O89" s="3">
         <v>6161300</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="P89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3329,43 +3954,55 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-1294800</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E91" s="3">
         <v>-923400</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H91" s="3">
+      <c r="F91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-1267100</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-903700</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1074900</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M91" s="3">
         <v>-1119700</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O91" s="3">
         <v>-1036500</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="P91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3399,8 +4036,17 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3434,43 +4080,61 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>234500</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-14676800</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-181200</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94" s="3">
+        <v>229500</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-14362900</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2971000</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M94" s="3">
         <v>3688000</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O94" s="3">
         <v>-1369800</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="P94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3484,8 +4148,11 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3493,10 +4160,10 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-4209700</v>
       </c>
       <c r="F96" s="3">
-        <v>-4233300</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3505,22 +4172,31 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-4142800</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-4162600</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3554,8 +4230,17 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3589,8 +4274,17 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3624,109 +4318,145 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-5115200</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F100" s="3">
-        <v>9529100</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-3523500</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-5005800</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" s="3">
+        <v>9325300</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3040600</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M100" s="3">
         <v>-5825400</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O100" s="3">
         <v>132600</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="P100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>11200</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-10100</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E101" s="3">
+        <v>13200</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G101" s="3">
+        <v>11000</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K101" s="3">
         <v>-30300</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M101" s="3">
         <v>-52700</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O101" s="3">
         <v>2300</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="P101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-637300</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-3166300</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-200900</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-623700</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-3098600</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K102" s="3">
         <v>-630600</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M102" s="3">
         <v>677700</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O102" s="3">
         <v>4926500</v>
       </c>
-      <c r="M102" s="3" t="s">
+      <c r="P102" s="3" t="s">
         <v>16</v>
       </c>
     </row>
